--- a/src/Data/mmr_results.xlsx
+++ b/src/Data/mmr_results.xlsx
@@ -443,10 +443,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -523,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -603,10 +603,10 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -643,10 +643,10 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
